--- a/src/assets/郵寄明細報表.xlsx
+++ b/src/assets/郵寄明細報表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>客戶代號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,31 +29,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>職稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手機/電話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通訊地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>帳單地址/MAIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>業務員</t>
+    <t>負責業務</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -478,14 +458,10 @@
     <col min="1" max="1" width="20.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="20.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="44.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="4" customWidth="1"/>
-    <col min="5" max="6" width="10.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="40.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9" style="3"/>
+    <col min="4" max="4" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -493,40 +469,17 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E3" s="4"/>
+      <c r="D2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
